--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43015,6 +43015,41 @@
         <v>19937400</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>3255000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43050,6 +43050,41 @@
         <v>3255000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>5548400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43085,6 +43085,41 @@
         <v>5548400</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>14877800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43120,6 +43120,41 @@
         <v>14877800</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>5393100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43155,6 +43155,41 @@
         <v>5393100</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>6048400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43190,6 +43190,41 @@
         <v>6048400</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>17675700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43225,6 +43225,41 @@
         <v>17675700</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>7720100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43260,6 +43260,41 @@
         <v>7720100</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>3965200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43295,6 +43295,41 @@
         <v>3965200</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>15619000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43330,6 +43330,41 @@
         <v>15619000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>9249100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43365,6 +43365,41 @@
         <v>9249100</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>4993000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43400,6 +43400,41 @@
         <v>4993000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>16762300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43435,6 +43435,76 @@
         <v>16762300</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>6923000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>2036600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43505,6 +43505,76 @@
         <v>2036600</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>14131500</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>7533700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43575,6 +43575,41 @@
         <v>7533700</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>75000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43610,6 +43610,41 @@
         <v>75000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>15302700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43645,6 +43645,41 @@
         <v>15302700</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>7378100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43680,6 +43680,41 @@
         <v>7378100</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>511300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43715,6 +43715,76 @@
         <v>511300</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>17376800</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>8030700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43785,6 +43785,41 @@
         <v>8030700</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>289200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43820,6 +43820,41 @@
         <v>289200</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>17424700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2119"/>
+  <dimension ref="A1:I2120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74585,6 +74585,41 @@
         <v>17424700</v>
       </c>
     </row>
+    <row r="2120">
+      <c r="A2120" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2120" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2120" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D2120" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E2120" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F2120" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2120" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2120" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2120" t="n">
+        <v>9845300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2120"/>
+  <dimension ref="A1:I2121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74620,6 +74620,41 @@
         <v>9845300</v>
       </c>
     </row>
+    <row r="2121">
+      <c r="A2121" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2121" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2121" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D2121" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E2121" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2121" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G2121" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H2121" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2121" t="n">
+        <v>16863100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2121"/>
+  <dimension ref="A1:I2122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74655,6 +74655,41 @@
         <v>16863100</v>
       </c>
     </row>
+    <row r="2122">
+      <c r="A2122" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2122" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2122" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D2122" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E2122" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2122" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G2122" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H2122" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2122" t="n">
+        <v>7390200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2122"/>
+  <dimension ref="A1:I2123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74690,6 +74690,41 @@
         <v>7390200</v>
       </c>
     </row>
+    <row r="2123">
+      <c r="A2123" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2123" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2123" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D2123" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E2123" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F2123" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G2123" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H2123" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I2123" t="n">
+        <v>9726200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2123"/>
+  <dimension ref="A1:I2124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74725,6 +74725,41 @@
         <v>9726200</v>
       </c>
     </row>
+    <row r="2124">
+      <c r="A2124" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2124" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2124" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D2124" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E2124" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F2124" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G2124" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H2124" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2124" t="n">
+        <v>16740200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2124"/>
+  <dimension ref="A1:I2125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74760,6 +74760,41 @@
         <v>16740200</v>
       </c>
     </row>
+    <row r="2125">
+      <c r="A2125" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2125" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2125" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D2125" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E2125" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2125" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G2125" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H2125" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I2125" t="n">
+        <v>7302600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2125"/>
+  <dimension ref="A1:I2126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74795,6 +74795,41 @@
         <v>7302600</v>
       </c>
     </row>
+    <row r="2126">
+      <c r="A2126" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2126" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2126" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D2126" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E2126" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F2126" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2126" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H2126" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2126" t="n">
+        <v>10332700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2126"/>
+  <dimension ref="A1:I2127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74830,6 +74830,41 @@
         <v>10332700</v>
       </c>
     </row>
+    <row r="2127">
+      <c r="A2127" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2127" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2127" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D2127" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E2127" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2127" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2127" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H2127" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2127" t="n">
+        <v>17351200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2127"/>
+  <dimension ref="A1:I2128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74865,6 +74865,41 @@
         <v>17351200</v>
       </c>
     </row>
+    <row r="2128">
+      <c r="A2128" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2128" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2128" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D2128" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E2128" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2128" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2128" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H2128" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2128" t="n">
+        <v>7649600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2128"/>
+  <dimension ref="A1:I2129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74900,6 +74900,41 @@
         <v>7649600</v>
       </c>
     </row>
+    <row r="2129">
+      <c r="A2129" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2129" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2129" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D2129" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E2129" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F2129" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G2129" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H2129" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2129" t="n">
+        <v>12013800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2129"/>
+  <dimension ref="A1:I2130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74935,6 +74935,41 @@
         <v>12013800</v>
       </c>
     </row>
+    <row r="2130">
+      <c r="A2130" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2130" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2130" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D2130" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E2130" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F2130" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2130" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H2130" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2130" t="n">
+        <v>17079500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2130"/>
+  <dimension ref="A1:I2131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74970,6 +74970,41 @@
         <v>17079500</v>
       </c>
     </row>
+    <row r="2131">
+      <c r="A2131" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2131" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2131" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D2131" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E2131" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2131" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G2131" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2131" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2131" t="n">
+        <v>8147700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2131"/>
+  <dimension ref="A1:I2132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75005,6 +75005,41 @@
         <v>8147700</v>
       </c>
     </row>
+    <row r="2132">
+      <c r="A2132" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2132" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2132" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D2132" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E2132" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2132" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G2132" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H2132" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2132" t="n">
+        <v>11608600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2132"/>
+  <dimension ref="A1:I2133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75040,6 +75040,41 @@
         <v>11608600</v>
       </c>
     </row>
+    <row r="2133">
+      <c r="A2133" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2133" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2133" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D2133" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E2133" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2133" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G2133" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2133" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2133" t="n">
+        <v>17836500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2133"/>
+  <dimension ref="A1:I2134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75075,6 +75075,41 @@
         <v>17836500</v>
       </c>
     </row>
+    <row r="2134">
+      <c r="A2134" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2134" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2134" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D2134" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E2134" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2134" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G2134" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2134" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2134" t="n">
+        <v>7722700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2767"/>
+  <dimension ref="A1:I2768"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97265,6 +97265,41 @@
         <v>7722700</v>
       </c>
     </row>
+    <row r="2768">
+      <c r="A2768" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2768" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2768" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D2768" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E2768" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2768" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G2768" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2768" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2768" t="n">
+        <v>12372700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2768"/>
+  <dimension ref="A1:I2769"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97300,6 +97300,41 @@
         <v>12372700</v>
       </c>
     </row>
+    <row r="2769">
+      <c r="A2769" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2769" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2769" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D2769" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E2769" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2769" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G2769" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2769" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2769" t="n">
+        <v>21958900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2769"/>
+  <dimension ref="A1:I2770"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97335,6 +97335,41 @@
         <v>21958900</v>
       </c>
     </row>
+    <row r="2770">
+      <c r="A2770" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2770" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2770" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D2770" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E2770" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2770" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G2770" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H2770" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2770" t="n">
+        <v>8722800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2770"/>
+  <dimension ref="A1:I2771"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97370,6 +97370,41 @@
         <v>8722800</v>
       </c>
     </row>
+    <row r="2771">
+      <c r="A2771" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2771" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2771" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D2771" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E2771" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2771" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G2771" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2771" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2771" t="n">
+        <v>9778900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2771"/>
+  <dimension ref="A1:I2772"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97405,6 +97405,41 @@
         <v>9778900</v>
       </c>
     </row>
+    <row r="2772">
+      <c r="A2772" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2772" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2772" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D2772" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E2772" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2772" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G2772" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H2772" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2772" t="n">
+        <v>20805700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2772"/>
+  <dimension ref="A1:I2773"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97440,6 +97440,41 @@
         <v>20805700</v>
       </c>
     </row>
+    <row r="2773">
+      <c r="A2773" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2773" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2773" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D2773" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E2773" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2773" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G2773" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H2773" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2773" t="n">
+        <v>12014600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2773"/>
+  <dimension ref="A1:I2774"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97475,6 +97475,41 @@
         <v>12014600</v>
       </c>
     </row>
+    <row r="2774">
+      <c r="A2774" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2774" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2774" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D2774" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E2774" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2774" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G2774" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2774" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2774" t="n">
+        <v>10671300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2774"/>
+  <dimension ref="A1:I2775"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97510,6 +97510,41 @@
         <v>10671300</v>
       </c>
     </row>
+    <row r="2775">
+      <c r="A2775" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2775" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2775" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D2775" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E2775" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2775" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G2775" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2775" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2775" t="n">
+        <v>21710500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2775"/>
+  <dimension ref="A1:I2776"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97545,6 +97545,41 @@
         <v>21710500</v>
       </c>
     </row>
+    <row r="2776">
+      <c r="A2776" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2776" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2776" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D2776" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E2776" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2776" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G2776" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2776" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2776" t="n">
+        <v>11317300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2776"/>
+  <dimension ref="A1:I2777"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97580,6 +97580,41 @@
         <v>11317300</v>
       </c>
     </row>
+    <row r="2777">
+      <c r="A2777" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2777" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2777" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D2777" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E2777" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F2777" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2777" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2777" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2777" t="n">
+        <v>20243800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2777"/>
+  <dimension ref="A1:I2779"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97615,6 +97615,76 @@
         <v>20243800</v>
       </c>
     </row>
+    <row r="2778">
+      <c r="A2778" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2778" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2778" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D2778" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E2778" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2778" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G2778" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H2778" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2778" t="n">
+        <v>18715300</v>
+      </c>
+    </row>
+    <row r="2779">
+      <c r="A2779" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2779" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2779" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D2779" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E2779" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F2779" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2779" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H2779" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I2779" t="n">
+        <v>10083000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2779"/>
+  <dimension ref="A1:I2780"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97685,6 +97685,41 @@
         <v>10083000</v>
       </c>
     </row>
+    <row r="2780">
+      <c r="A2780" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2780" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2780" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D2780" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E2780" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F2780" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2780" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H2780" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2780" t="n">
+        <v>15863800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2780"/>
+  <dimension ref="A1:I2783"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97720,6 +97720,111 @@
         <v>15863800</v>
       </c>
     </row>
+    <row r="2781">
+      <c r="A2781" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2781" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2781" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D2781" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E2781" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2781" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2781" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H2781" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2781" t="n">
+        <v>15137600</v>
+      </c>
+    </row>
+    <row r="2782">
+      <c r="A2782" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2782" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2782" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D2782" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E2782" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2782" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2782" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2782" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2782" t="n">
+        <v>9553000</v>
+      </c>
+    </row>
+    <row r="2783">
+      <c r="A2783" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2783" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2783" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D2783" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E2783" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F2783" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G2783" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H2783" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I2783" t="n">
+        <v>19087300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2783"/>
+  <dimension ref="A1:I2784"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97825,6 +97825,41 @@
         <v>19087300</v>
       </c>
     </row>
+    <row r="2784">
+      <c r="A2784" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2784" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2784" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D2784" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E2784" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F2784" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G2784" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H2784" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2784" t="n">
+        <v>13907700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2784"/>
+  <dimension ref="A1:I2785"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97860,6 +97860,41 @@
         <v>13907700</v>
       </c>
     </row>
+    <row r="2785">
+      <c r="A2785" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2785" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2785" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D2785" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E2785" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F2785" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G2785" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H2785" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I2785" t="n">
+        <v>7101600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0095.xlsx
+++ b/data/0095.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2785"/>
+  <dimension ref="A1:I2788"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97895,6 +97895,111 @@
         <v>7101600</v>
       </c>
     </row>
+    <row r="2786">
+      <c r="A2786" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2786" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2786" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D2786" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E2786" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F2786" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G2786" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H2786" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I2786" t="n">
+        <v>13830000</v>
+      </c>
+    </row>
+    <row r="2787">
+      <c r="A2787" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2787" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2787" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D2787" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E2787" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2787" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2787" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H2787" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2787" t="n">
+        <v>14099800</v>
+      </c>
+    </row>
+    <row r="2788">
+      <c r="A2788" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2788" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2788" t="inlineStr">
+        <is>
+          <t>0095</t>
+        </is>
+      </c>
+      <c r="D2788" t="inlineStr">
+        <is>
+          <t>XINGHE</t>
+        </is>
+      </c>
+      <c r="E2788" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F2788" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2788" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2788" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2788" t="n">
+        <v>5392000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
